--- a/patient_data/patient_55.xlsx
+++ b/patient_data/patient_55.xlsx
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1404,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1792,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -1946,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2156,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2233,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
